--- a/src/public/exports/thong-ke-danh-sach-nguoi-dung.xlsx
+++ b/src/public/exports/thong-ke-danh-sach-nguoi-dung.xlsx
@@ -420,7 +420,7 @@
         <v>HCM City</v>
       </c>
       <c r="F2" t="str">
-        <v>2000-01-31T17:00:00.000Z</v>
+        <v>01-02-2000</v>
       </c>
       <c r="G2" t="str">
         <v>Học sinh</v>
@@ -443,7 +443,7 @@
         <v>Q9, HCM City</v>
       </c>
       <c r="F3" t="str">
-        <v>2000-09-06T00:00:00.000Z</v>
+        <v>06-09-2000</v>
       </c>
       <c r="G3" t="str">
         <v>Người quản trị hệ thống</v>
@@ -466,7 +466,7 @@
         <v>Quảng Ngãi</v>
       </c>
       <c r="F4" t="str">
-        <v>2000-10-10T00:00:00.000Z</v>
+        <v>10-10-2000</v>
       </c>
       <c r="G4" t="str">
         <v>Học sinh</v>
@@ -489,7 +489,7 @@
         <v>DakLak</v>
       </c>
       <c r="F5" t="str">
-        <v>2000-12-12T00:00:00.000Z</v>
+        <v>12-12-2000</v>
       </c>
       <c r="G5" t="str">
         <v>Học sinh</v>
@@ -512,7 +512,7 @@
         <v>HCM</v>
       </c>
       <c r="F6" t="str">
-        <v>2000-03-03T00:00:00.000Z</v>
+        <v>03-03-2000</v>
       </c>
       <c r="G6" t="str">
         <v>Học sinh</v>
@@ -535,7 +535,7 @@
         <v>Hà Nội</v>
       </c>
       <c r="F7" t="str">
-        <v>2001-02-05T00:00:00.000Z</v>
+        <v>05-02-2001</v>
       </c>
       <c r="G7" t="str">
         <v>Học sinh</v>
